--- a/FICHA TECNICA DE CONSTRUCCION.xlsx
+++ b/FICHA TECNICA DE CONSTRUCCION.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Direccion/avenida/calles:</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>Cantidad Cajas de Paso:</t>
-  </si>
-  <si>
-    <t>Elaborado Por: Ing. Daniel Gomez</t>
-  </si>
-  <si>
-    <t>Revisado y Aprobado por: Ing. Anderso Mendoza</t>
   </si>
   <si>
     <t>FICHA TECNICA DE CONSTRUCCION</t>
@@ -663,30 +657,251 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,10 +979,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -786,244 +997,27 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,44 +1128,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>668605</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>118334</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13606" y="19308536"/>
-          <a:ext cx="12504965" cy="553762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1508,7 +1464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,8 +1475,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A62" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,36 +1497,36 @@
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="149"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="87" t="s">
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="28" t="s">
         <v>12</v>
       </c>
@@ -1578,14 +1534,14 @@
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="96"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="159"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
     </row>
@@ -1603,47 +1559,47 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="112" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="92"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="120"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="121"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
@@ -1683,14 +1639,14 @@
       <c r="C18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
@@ -1700,14 +1656,14 @@
       <c r="C19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="146"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
@@ -1717,21 +1673,21 @@
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="146"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="169"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1776,17 +1732,17 @@
       <c r="B24" s="20"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="138" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="140"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="113"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
@@ -1795,32 +1751,32 @@
       <c r="B25" s="75"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="142"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="140"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="106"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="24"/>
       <c r="E26" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="65"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
@@ -1829,13 +1785,13 @@
       <c r="B27" s="38"/>
       <c r="C27" s="3"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
@@ -1871,30 +1827,30 @@
       <c r="K29" s="21"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
       <c r="P29" s="51"/>
       <c r="Q29" s="50"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
       <c r="U29" s="52"/>
       <c r="V29" s="50"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
+      <c r="A30" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="92"/>
       <c r="L30" s="50"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
@@ -1923,9 +1879,9 @@
       <c r="M31" s="50"/>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
       <c r="S31" s="50"/>
       <c r="T31" s="50"/>
       <c r="U31" s="50"/>
@@ -1935,15 +1891,15 @@
       <c r="A32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="108" t="s">
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="109"/>
+      <c r="F32" s="171"/>
       <c r="G32" s="43"/>
-      <c r="H32" s="126" t="s">
+      <c r="H32" s="127" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="32" t="s">
@@ -1957,25 +1913,25 @@
       </c>
       <c r="L32" s="50"/>
       <c r="M32" s="53"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="160"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="159"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="103"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="22"/>
       <c r="F33" s="12"/>
       <c r="G33" s="41"/>
-      <c r="H33" s="127"/>
+      <c r="H33" s="128"/>
       <c r="I33" s="37"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
@@ -1983,136 +1939,136 @@
       <c r="M33" s="50"/>
       <c r="N33" s="54"/>
       <c r="O33" s="54"/>
-      <c r="P33" s="160"/>
-      <c r="Q33" s="160"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="161"/>
-      <c r="U33" s="161"/>
-      <c r="V33" s="159"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="176"/>
+      <c r="T33" s="106"/>
+      <c r="U33" s="106"/>
+      <c r="V33" s="103"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="102" t="s">
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="102"/>
+      <c r="F34" s="165"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="140"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="113"/>
       <c r="L34" s="50"/>
       <c r="M34" s="55"/>
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="160"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="161"/>
-      <c r="U34" s="161"/>
-      <c r="V34" s="81"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="104"/>
     </row>
     <row r="35" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="135"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="124" t="s">
+      <c r="A35" s="136"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="125"/>
+      <c r="F35" s="126"/>
       <c r="G35" s="42"/>
-      <c r="H35" s="166" t="s">
+      <c r="H35" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="167"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="98"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="161"/>
       <c r="L35" s="50"/>
       <c r="M35" s="55"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="160"/>
-      <c r="Q35" s="160"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="161"/>
-      <c r="U35" s="161"/>
-      <c r="V35" s="81"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="106"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="104"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="135"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="124" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="125"/>
+      <c r="F36" s="126"/>
       <c r="G36" s="42"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="134"/>
       <c r="L36" s="50"/>
       <c r="M36" s="76"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="161"/>
-      <c r="U36" s="161"/>
-      <c r="V36" s="81"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="178"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="104"/>
     </row>
     <row r="37" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L37" s="50"/>
       <c r="M37" s="76"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="160"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="161"/>
-      <c r="U37" s="161"/>
-      <c r="V37" s="81"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="106"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="104"/>
     </row>
     <row r="38" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="113"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
+      <c r="A38" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="92"/>
       <c r="M38" s="39"/>
     </row>
     <row r="39" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="163"/>
+      <c r="A39" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="108"/>
       <c r="C39" s="73"/>
       <c r="D39" s="74"/>
-      <c r="E39" s="164" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="165"/>
+      <c r="E39" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
       <c r="I39" s="69"/>
       <c r="J39" s="72"/>
       <c r="K39" s="10"/>
@@ -2120,7 +2076,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="40"/>
       <c r="E40" s="8"/>
@@ -2133,7 +2089,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="40"/>
       <c r="E41" s="8"/>
@@ -2159,14 +2115,14 @@
     </row>
     <row r="43" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="82"/>
+      <c r="D43" s="57" t="s">
         <v>34</v>
-      </c>
-      <c r="C43" s="173"/>
-      <c r="D43" s="57" t="s">
-        <v>36</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2178,7 +2134,7 @@
     </row>
     <row r="44" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="59">
         <f>B22+B27+E27</f>
@@ -2186,10 +2142,10 @@
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="169"/>
+      <c r="E44" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="78"/>
       <c r="G44" s="58"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -2214,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="70"/>
       <c r="D46" s="8"/>
@@ -2227,22 +2183,22 @@
       <c r="K46" s="31"/>
     </row>
     <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="170" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="171"/>
+      <c r="A47" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="80"/>
       <c r="C47" s="40"/>
       <c r="D47" s="64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="40"/>
-      <c r="F47" s="168" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="169"/>
+      <c r="F47" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="78"/>
       <c r="H47" s="58"/>
       <c r="I47" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J47" s="58"/>
       <c r="K47" s="9"/>
@@ -2250,358 +2206,354 @@
     <row r="48" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="150"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="152"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="96"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="153"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="155"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="99"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="155"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="99"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="154"/>
-      <c r="K53" s="155"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="99"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="153"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="154"/>
-      <c r="K54" s="155"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="99"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="153"/>
-      <c r="B55" s="154"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="155"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="99"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="153"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="155"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="99"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="155"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="99"/>
     </row>
     <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="153"/>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="155"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="99"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="154"/>
-      <c r="E59" s="154"/>
-      <c r="F59" s="154"/>
-      <c r="G59" s="154"/>
-      <c r="H59" s="154"/>
-      <c r="I59" s="154"/>
-      <c r="J59" s="154"/>
-      <c r="K59" s="155"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="99"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="153"/>
-      <c r="B60" s="154"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
-      <c r="H60" s="154"/>
-      <c r="I60" s="154"/>
-      <c r="J60" s="154"/>
-      <c r="K60" s="155"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="99"/>
     </row>
     <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="153"/>
-      <c r="B61" s="154"/>
-      <c r="C61" s="154"/>
-      <c r="D61" s="154"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="154"/>
-      <c r="G61" s="154"/>
-      <c r="H61" s="154"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="154"/>
-      <c r="K61" s="155"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="99"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="153"/>
-      <c r="B62" s="154"/>
-      <c r="C62" s="154"/>
-      <c r="D62" s="154"/>
-      <c r="E62" s="154"/>
-      <c r="F62" s="154"/>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-      <c r="I62" s="154"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="155"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="99"/>
     </row>
     <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="153"/>
-      <c r="B63" s="154"/>
-      <c r="C63" s="154"/>
-      <c r="D63" s="154"/>
-      <c r="E63" s="154"/>
-      <c r="F63" s="154"/>
-      <c r="G63" s="154"/>
-      <c r="H63" s="154"/>
-      <c r="I63" s="154"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="155"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="99"/>
     </row>
     <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="153"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="154"/>
-      <c r="D64" s="154"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="154"/>
-      <c r="G64" s="154"/>
-      <c r="H64" s="154"/>
-      <c r="I64" s="154"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="155"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="99"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="153"/>
-      <c r="B65" s="154"/>
-      <c r="C65" s="154"/>
-      <c r="D65" s="154"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="154"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="154"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="155"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="98"/>
+      <c r="I65" s="98"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="99"/>
     </row>
     <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="153"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="154"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="155"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="99"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="155"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="99"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="153"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-      <c r="I68" s="154"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="155"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="K68" s="99"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="153"/>
-      <c r="B69" s="154"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="154"/>
-      <c r="G69" s="154"/>
-      <c r="H69" s="154"/>
-      <c r="I69" s="154"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="155"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="99"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="153"/>
-      <c r="B70" s="154"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="154"/>
-      <c r="E70" s="154"/>
-      <c r="F70" s="154"/>
-      <c r="G70" s="154"/>
-      <c r="H70" s="154"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="155"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="99"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="153"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="154"/>
-      <c r="D71" s="154"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-      <c r="I71" s="154"/>
-      <c r="J71" s="154"/>
-      <c r="K71" s="155"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
+      <c r="J71" s="98"/>
+      <c r="K71" s="99"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="156"/>
-      <c r="B72" s="157"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="158"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="102"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="149"/>
-      <c r="B80" s="149"/>
-      <c r="C80" s="149"/>
-      <c r="D80" s="149"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="149"/>
-      <c r="H80" s="149"/>
-      <c r="I80" s="149"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="149"/>
+      <c r="A80" s="93"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="149"/>
-      <c r="B81" s="149"/>
-      <c r="C81" s="149"/>
-      <c r="D81" s="149"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="149"/>
-      <c r="G81" s="149"/>
-      <c r="H81" s="149"/>
-      <c r="I81" s="149"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="149"/>
+      <c r="A81" s="93"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="93"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="174" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="175"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="174" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="175"/>
-      <c r="F82" s="175"/>
-      <c r="G82" s="176"/>
+      <c r="A82" s="83"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="85"/>
       <c r="H82" s="34"/>
       <c r="I82" s="34"/>
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="177"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="177"/>
-      <c r="E83" s="178"/>
-      <c r="F83" s="178"/>
-      <c r="G83" s="179"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="88"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
       <c r="J83" s="34"/>
@@ -2752,12 +2704,48 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A82:C83"/>
-    <mergeCell ref="D82:G83"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:K15"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:K38"/>
     <mergeCell ref="A80:K81"/>
     <mergeCell ref="A50:K72"/>
@@ -2774,48 +2762,12 @@
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:K15"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A82:C83"/>
+    <mergeCell ref="D82:G83"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44">
